--- a/CONTOH DUPAK/dupak 2021 kirim tino/Laporan Kegiatan Prakom Januari - Desember 2021.xlsx
+++ b/CONTOH DUPAK/dupak 2021 kirim tino/Laporan Kegiatan Prakom Januari - Desember 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\}}DUPAK\CONTOH DUPAK\dupak 2021 kirim tino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E16CC7-DA9F-45FF-9851-707AFC98750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB185C-DB60-4AFA-9C06-DC6D59E954CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="157">
   <si>
     <t>LAPORAN KEGIATAN PRANATA KOMPUTER</t>
   </si>
@@ -508,6 +508,9 @@
   <si>
     <t>NIP. 196601071993022001</t>
   </si>
+  <si>
+    <t>ww</t>
+  </si>
 </sst>
 </file>
 
@@ -734,6 +737,14 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -742,7 +753,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -753,13 +763,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -993,16 +996,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1463,25 +1466,25 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="29" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -1503,13 +1506,13 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1569,16 +1572,16 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1636,16 +1639,16 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1703,16 +1706,16 @@
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2096,16 +2099,16 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2286,16 +2289,16 @@
       <c r="V40" s="14"/>
     </row>
     <row r="41" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2882,16 +2885,16 @@
       <c r="V55" s="2"/>
     </row>
     <row r="56" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="29"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="33"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -2949,16 +2952,16 @@
       <c r="V57" s="1"/>
     </row>
     <row r="58" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="29"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="33"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3016,16 +3019,16 @@
       <c r="V59" s="1"/>
     </row>
     <row r="60" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="29"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="33"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -3350,9 +3353,8 @@
       <c r="G68" s="21">
         <v>1</v>
       </c>
-      <c r="H68" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="H68" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
@@ -3575,16 +3577,16 @@
       <c r="V73" s="14"/>
     </row>
     <row r="74" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="29"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="33"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -3765,16 +3767,16 @@
       <c r="V78" s="2"/>
     </row>
     <row r="79" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="29"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="33"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -3873,18 +3875,18 @@
       <c r="V81" s="2"/>
     </row>
     <row r="82" spans="1:22" ht="14.25" customHeight="1">
-      <c r="A82" s="34" t="s">
+      <c r="A82" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="29"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="33"/>
       <c r="H82" s="25">
         <f>SUM(H23:H81)</f>
-        <v>79.875000000000014</v>
+        <v>78.875000000000014</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -3933,11 +3935,11 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="35" t="s">
+      <c r="F84" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -3959,11 +3961,11 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="35" t="s">
+      <c r="F85" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -4081,11 +4083,11 @@
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="30" t="s">
+      <c r="F90" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -4107,11 +4109,11 @@
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="32" t="s">
+      <c r="F91" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -26137,19 +26139,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A41:H41"/>
     <mergeCell ref="A56:H56"/>
     <mergeCell ref="F90:H90"/>
     <mergeCell ref="F91:H91"/>
@@ -26160,8 +26149,21 @@
     <mergeCell ref="A82:G82"/>
     <mergeCell ref="F84:H84"/>
     <mergeCell ref="F85:H85"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>